--- a/EXELS/RegistraMaterias.xlsx
+++ b/EXELS/RegistraMaterias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI - copia\EXELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BE0EE8-95B1-40CA-A2C0-577DDD333447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC1FCC-34A9-44F2-B83B-D639613F9459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Numero de Control</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>doc23001</t>
+  </si>
+  <si>
+    <t>Unidades</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA5109-4B52-4F7B-A729-6A6FE5ACD800}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +468,7 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -478,8 +481,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -492,8 +498,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -520,8 +532,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -534,8 +549,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
   </sheetData>
